--- a/data/trans_orig/Q02G_LAB-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_LAB-Provincia-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.559788975670497</v>
+        <v>4.532079825971177</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.140433238140069</v>
+        <v>4.12960898582957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.599632641331038</v>
+        <v>3.562682348621864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.32755451137162</v>
+        <v>3.280650437869636</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.151044454480237</v>
+        <v>4.212548661770337</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.009539315221684</v>
+        <v>3.887915398788292</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.239979347871362</v>
+        <v>8.614044753365699</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.0335358367318</v>
+        <v>13.3344975941222</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.199663632930895</v>
+        <v>6.92476676461891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.420877001535001</v>
+        <v>6.276416851746971</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.830818051717265</v>
+        <v>6.778964603689468</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.274065717785413</v>
+        <v>7.233771126562552</v>
       </c>
     </row>
     <row r="7">
@@ -713,20 +713,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.104448525752573</v>
+        <v>2.286723644409977</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>3.766018987815657</v>
+        <v>3.663422848630705</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>2.461835827194332</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.601376533091964</v>
+        <v>3.585453664448225</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.374470945921139</v>
+        <v>2.369116635462505</v>
       </c>
     </row>
     <row r="9">
@@ -737,20 +737,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.919803546183897</v>
+        <v>6.240262827493544</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>6.006833530104033</v>
+        <v>6.030692699512469</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>6.158289659789067</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.656816770110396</v>
+        <v>5.582650782326656</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.056522396123752</v>
+        <v>6.068335102733674</v>
       </c>
     </row>
     <row r="10">
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.015375431324307</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.811542411078889</v>
+        <v>1.815569810314489</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.626103198591703</v>
+        <v>1.63919830844511</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.568634201833174</v>
+        <v>1.658563143854291</v>
       </c>
     </row>
     <row r="12">
@@ -823,16 +823,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.529396965831364</v>
+        <v>4.766425578518339</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.760816862454129</v>
+        <v>5.888124076689575</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.200758064594345</v>
+        <v>4.218029064074623</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.333531659971169</v>
+        <v>4.668955457366223</v>
       </c>
     </row>
     <row r="13">
@@ -876,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.710786315138782</v>
+        <v>1.625283319727856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.881866529648804</v>
+        <v>2.958339445810268</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.998483241105902</v>
+        <v>3.012660744122905</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.583678993360138</v>
+        <v>2.62285443663709</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.729769544318283</v>
+        <v>2.792148715576261</v>
       </c>
     </row>
     <row r="15">
@@ -902,19 +902,19 @@
         <v>2</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.638360231289336</v>
+        <v>3.711227751835442</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.717956976228703</v>
+        <v>5.999810856618737</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.698999511815269</v>
+        <v>8.040388411239304</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.11234898863538</v>
+        <v>5.311362135730464</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.998203096571666</v>
+        <v>6.543423762244583</v>
       </c>
     </row>
     <row r="16">
@@ -959,16 +959,16 @@
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>1.839849110368137</v>
+        <v>1.834764391547658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.012792260742573</v>
+        <v>2.087056267760719</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.896360175929091</v>
+        <v>1.984666582189679</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.433369044573538</v>
+        <v>2.290314822898276</v>
       </c>
     </row>
     <row r="18">
@@ -983,16 +983,16 @@
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>4.79553829501777</v>
+        <v>4.693346293475203</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.903229365296208</v>
+        <v>5.831070538675845</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.033143985776193</v>
+        <v>3.942079636146484</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.945505494698692</v>
+        <v>5.923892680828628</v>
       </c>
     </row>
     <row r="19">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>2.473730559404781</v>
+        <v>2.453993299095051</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.769649218967075</v>
+        <v>2.78512990122262</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.293147539465694</v>
+        <v>3.377585919155405</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.740078387969352</v>
+        <v>2.743580055997032</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.33522499753327</v>
+        <v>3.266708772501165</v>
       </c>
     </row>
     <row r="21">
@@ -1058,19 +1058,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>5.794072726835576</v>
+        <v>5.943391560875195</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.130775771625507</v>
+        <v>4.166260514787135</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.536278472713143</v>
+        <v>6.611311476854199</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>4.087181775763256</v>
+        <v>4.206762294270883</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>5.707905271213185</v>
+        <v>5.694182060781744</v>
       </c>
     </row>
     <row r="22">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.43304984563819</v>
+        <v>2.363883198903372</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.338113098803956</v>
+        <v>1.35176513724083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.016040073288905</v>
+        <v>1.99653495703644</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.591198866618921</v>
+        <v>2.779356797716052</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.501273489885923</v>
+        <v>2.451814181235305</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.584592811262429</v>
+        <v>2.487772562572648</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.917252786895558</v>
+        <v>6.782314700632743</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.146413533260699</v>
+        <v>4.373646801288734</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.424738408749046</v>
+        <v>7.213524904314196</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.787155393311905</v>
+        <v>4.833993375048511</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.610012646751461</v>
+        <v>6.193074693205675</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.872241892811005</v>
+        <v>1.88024757862389</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.20876793194655</v>
+        <v>1.159403757725167</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.848772556275728</v>
+        <v>2.776837875505814</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.353167546944438</v>
+        <v>2.378651649886993</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>2.800320994048765</v>
+        <v>2.8127900169085</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>2.23335782039811</v>
+        <v>2.223640250924376</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.321539229417416</v>
+        <v>6.396378924942828</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.074749613684363</v>
+        <v>2.945756097940393</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.245307996406259</v>
+        <v>6.246958524625962</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.754028021772036</v>
+        <v>3.781931575910919</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>5.534190444886846</v>
+        <v>5.670133176855463</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.414229339081035</v>
+        <v>3.478236781178849</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.011062361102521</v>
+        <v>2.994944339189508</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.750538716057882</v>
+        <v>2.785341727256273</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.51945519972507</v>
+        <v>3.456004052537568</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.491628401698753</v>
+        <v>3.448042303809486</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.502046465612807</v>
+        <v>3.494174684769595</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.477089444420072</v>
+        <v>3.397440090691974</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.745349766592464</v>
+        <v>4.725761270661322</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.888284572871938</v>
+        <v>4.93509240934154</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.600665048500767</v>
+        <v>4.589877368671024</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.84941893548565</v>
+        <v>4.772696855173283</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.45654399168921</v>
+        <v>4.452934122182998</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.55340192554698</v>
+        <v>4.520101855823212</v>
       </c>
     </row>
     <row r="31">
